--- a/database/industries/ghaza/gheshasfa/income/yearly/dollar.xlsx
+++ b/database/industries/ghaza/gheshasfa/income/yearly/dollar.xlsx
@@ -175,6 +175,11 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -199,6 +204,21 @@
       <c r="H1" s="2">
         <v/>
       </c>
+      <c r="I1" s="2">
+        <v/>
+      </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -224,6 +244,21 @@
       <c r="H2" s="2">
         <v/>
       </c>
+      <c r="I2" s="2">
+        <v/>
+      </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
@@ -249,6 +284,21 @@
       <c r="H3" s="2">
         <v/>
       </c>
+      <c r="I3" s="2">
+        <v/>
+      </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -272,6 +322,21 @@
       <c r="H4" s="2">
         <v/>
       </c>
+      <c r="I4" s="2">
+        <v/>
+      </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
@@ -297,6 +362,21 @@
       <c r="H5" s="5">
         <v/>
       </c>
+      <c r="I5" s="5">
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <v/>
+      </c>
+      <c r="K5" s="5">
+        <v/>
+      </c>
+      <c r="L5" s="5">
+        <v/>
+      </c>
+      <c r="M5" s="5">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
@@ -322,6 +402,21 @@
       <c r="H6" s="5">
         <v/>
       </c>
+      <c r="I6" s="5">
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <v/>
+      </c>
+      <c r="K6" s="5">
+        <v/>
+      </c>
+      <c r="L6" s="5">
+        <v/>
+      </c>
+      <c r="M6" s="5">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -345,6 +440,21 @@
       <c r="H7" s="2">
         <v/>
       </c>
+      <c r="I7" s="2">
+        <v/>
+      </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
@@ -357,25 +467,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
+          <t>12 ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
           <t>12 ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1400/12</t>
         </is>
@@ -392,27 +527,52 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
+          <t>1393-02-21 (14)</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>1394-02-24 (23)</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>1395-02-25 (18)</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>1396-02-21 (14)</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>1397-04-09 (15)</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
           <t>1398-02-22 (9)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>1399-02-14 (8)</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>1400-02-21 (8)</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>1401-02-18 (8)</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>1401-04-28 (3)</t>
+      <c r="M9" s="10" t="inlineStr">
+        <is>
+          <t>1401-08-09 (5)</t>
         </is>
       </c>
     </row>
@@ -438,6 +598,21 @@
       <c r="H10" s="12">
         <v/>
       </c>
+      <c r="I10" s="12">
+        <v/>
+      </c>
+      <c r="J10" s="12">
+        <v/>
+      </c>
+      <c r="K10" s="12">
+        <v/>
+      </c>
+      <c r="L10" s="12">
+        <v/>
+      </c>
+      <c r="M10" s="12">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -449,18 +624,33 @@
         <v/>
       </c>
       <c r="D11" s="14">
+        <v>54596</v>
+      </c>
+      <c r="E11" s="14">
+        <v>51370</v>
+      </c>
+      <c r="F11" s="14">
+        <v>66361</v>
+      </c>
+      <c r="G11" s="14">
+        <v>64306</v>
+      </c>
+      <c r="H11" s="14">
+        <v>63166</v>
+      </c>
+      <c r="I11" s="14">
         <v>63777</v>
       </c>
-      <c r="E11" s="14">
+      <c r="J11" s="14">
         <v>44602</v>
       </c>
-      <c r="F11" s="14">
+      <c r="K11" s="14">
         <v>71718</v>
       </c>
-      <c r="G11" s="14">
+      <c r="L11" s="14">
         <v>58996</v>
       </c>
-      <c r="H11" s="14">
+      <c r="M11" s="14">
         <v>70690</v>
       </c>
     </row>
@@ -474,18 +664,33 @@
         <v/>
       </c>
       <c r="D12" s="12">
+        <v>-47538</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-46464</v>
+      </c>
+      <c r="F12" s="12">
+        <v>-57292</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-56326</v>
+      </c>
+      <c r="H12" s="12">
+        <v>-56560</v>
+      </c>
+      <c r="I12" s="12">
         <v>-56047</v>
       </c>
-      <c r="E12" s="12">
+      <c r="J12" s="12">
         <v>-38869</v>
       </c>
-      <c r="F12" s="12">
+      <c r="K12" s="12">
         <v>-65405</v>
       </c>
-      <c r="G12" s="12">
+      <c r="L12" s="12">
         <v>-53380</v>
       </c>
-      <c r="H12" s="12">
+      <c r="M12" s="12">
         <v>-63874</v>
       </c>
     </row>
@@ -499,18 +704,33 @@
         <v/>
       </c>
       <c r="D13" s="16">
+        <v>7058</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4906</v>
+      </c>
+      <c r="F13" s="16">
+        <v>9069</v>
+      </c>
+      <c r="G13" s="16">
+        <v>7980</v>
+      </c>
+      <c r="H13" s="16">
+        <v>6606</v>
+      </c>
+      <c r="I13" s="16">
         <v>7730</v>
       </c>
-      <c r="E13" s="16">
+      <c r="J13" s="16">
         <v>5733</v>
       </c>
-      <c r="F13" s="16">
+      <c r="K13" s="16">
         <v>6313</v>
       </c>
-      <c r="G13" s="16">
+      <c r="L13" s="16">
         <v>5616</v>
       </c>
-      <c r="H13" s="16">
+      <c r="M13" s="16">
         <v>6816</v>
       </c>
     </row>
@@ -524,18 +744,33 @@
         <v/>
       </c>
       <c r="D14" s="12">
+        <v>-3337</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-2427</v>
+      </c>
+      <c r="F14" s="12">
+        <v>-5058</v>
+      </c>
+      <c r="G14" s="12">
+        <v>-4122</v>
+      </c>
+      <c r="H14" s="12">
+        <v>-3717</v>
+      </c>
+      <c r="I14" s="12">
         <v>-3730</v>
       </c>
-      <c r="E14" s="12">
+      <c r="J14" s="12">
         <v>-2630</v>
       </c>
-      <c r="F14" s="12">
+      <c r="K14" s="12">
         <v>-2609</v>
       </c>
-      <c r="G14" s="12">
+      <c r="L14" s="12">
         <v>-2209</v>
       </c>
-      <c r="H14" s="12">
+      <c r="M14" s="12">
         <v>-2954</v>
       </c>
     </row>
@@ -573,6 +808,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="11" t="inlineStr">
@@ -584,20 +844,39 @@
         <v/>
       </c>
       <c r="D16" s="12">
+        <v>17</v>
+      </c>
+      <c r="E16" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" s="12">
+        <v>3</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2008</v>
+      </c>
+      <c r="I16" s="12">
         <v>9</v>
       </c>
-      <c r="E16" s="12">
+      <c r="J16" s="12">
         <v>137</v>
       </c>
-      <c r="F16" s="12">
+      <c r="K16" s="12">
         <v>91</v>
       </c>
-      <c r="G16" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" s="12">
+      <c r="L16" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M16" s="12">
         <v>69</v>
       </c>
     </row>
@@ -611,18 +890,33 @@
         <v/>
       </c>
       <c r="D17" s="16">
+        <v>3738</v>
+      </c>
+      <c r="E17" s="16">
+        <v>2478</v>
+      </c>
+      <c r="F17" s="16">
+        <v>4011</v>
+      </c>
+      <c r="G17" s="16">
+        <v>3861</v>
+      </c>
+      <c r="H17" s="16">
+        <v>4897</v>
+      </c>
+      <c r="I17" s="16">
         <v>4010</v>
       </c>
-      <c r="E17" s="16">
+      <c r="J17" s="16">
         <v>3240</v>
       </c>
-      <c r="F17" s="16">
+      <c r="K17" s="16">
         <v>3796</v>
       </c>
-      <c r="G17" s="16">
+      <c r="L17" s="16">
         <v>3407</v>
       </c>
-      <c r="H17" s="16">
+      <c r="M17" s="16">
         <v>3930</v>
       </c>
     </row>
@@ -636,18 +930,33 @@
         <v/>
       </c>
       <c r="D18" s="12">
+        <v>-467</v>
+      </c>
+      <c r="E18" s="12">
+        <v>-740</v>
+      </c>
+      <c r="F18" s="12">
+        <v>-816</v>
+      </c>
+      <c r="G18" s="12">
+        <v>-617</v>
+      </c>
+      <c r="H18" s="12">
+        <v>-701</v>
+      </c>
+      <c r="I18" s="12">
         <v>-452</v>
       </c>
-      <c r="E18" s="12">
+      <c r="J18" s="12">
         <v>-183</v>
       </c>
-      <c r="F18" s="12">
+      <c r="K18" s="12">
         <v>-303</v>
       </c>
-      <c r="G18" s="12">
+      <c r="L18" s="12">
         <v>-369</v>
       </c>
-      <c r="H18" s="12">
+      <c r="M18" s="12">
         <v>-180</v>
       </c>
     </row>
@@ -661,18 +970,33 @@
         <v/>
       </c>
       <c r="D19" s="14">
+        <v>286</v>
+      </c>
+      <c r="E19" s="14">
+        <v>146</v>
+      </c>
+      <c r="F19" s="14">
+        <v>181</v>
+      </c>
+      <c r="G19" s="14">
+        <v>647</v>
+      </c>
+      <c r="H19" s="14">
+        <v>562</v>
+      </c>
+      <c r="I19" s="14">
         <v>327</v>
       </c>
-      <c r="E19" s="14">
+      <c r="J19" s="14">
         <v>242</v>
       </c>
-      <c r="F19" s="14">
+      <c r="K19" s="14">
         <v>318</v>
       </c>
-      <c r="G19" s="14">
+      <c r="L19" s="14">
         <v>189</v>
       </c>
-      <c r="H19" s="14">
+      <c r="M19" s="14">
         <v>244</v>
       </c>
     </row>
@@ -686,18 +1010,33 @@
         <v/>
       </c>
       <c r="D20" s="18">
+        <v>3556</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1884</v>
+      </c>
+      <c r="F20" s="18">
+        <v>3565</v>
+      </c>
+      <c r="G20" s="18">
+        <v>3892</v>
+      </c>
+      <c r="H20" s="18">
+        <v>4759</v>
+      </c>
+      <c r="I20" s="18">
         <v>3885</v>
       </c>
-      <c r="E20" s="18">
+      <c r="J20" s="18">
         <v>3299</v>
       </c>
-      <c r="F20" s="18">
+      <c r="K20" s="18">
         <v>3810</v>
       </c>
-      <c r="G20" s="18">
+      <c r="L20" s="18">
         <v>3227</v>
       </c>
-      <c r="H20" s="18">
+      <c r="M20" s="18">
         <v>3994</v>
       </c>
     </row>
@@ -711,18 +1050,33 @@
         <v/>
       </c>
       <c r="D21" s="14">
+        <v>-815</v>
+      </c>
+      <c r="E21" s="14">
+        <v>-412</v>
+      </c>
+      <c r="F21" s="14">
+        <v>-639</v>
+      </c>
+      <c r="G21" s="14">
+        <v>-591</v>
+      </c>
+      <c r="H21" s="14">
+        <v>-693</v>
+      </c>
+      <c r="I21" s="14">
         <v>-1236</v>
       </c>
-      <c r="E21" s="14">
+      <c r="J21" s="14">
         <v>-580</v>
       </c>
-      <c r="F21" s="14">
+      <c r="K21" s="14">
         <v>-644</v>
       </c>
-      <c r="G21" s="14">
+      <c r="L21" s="14">
         <v>-747</v>
       </c>
-      <c r="H21" s="14">
+      <c r="M21" s="14">
         <v>-731</v>
       </c>
     </row>
@@ -736,18 +1090,33 @@
         <v/>
       </c>
       <c r="D22" s="18">
+        <v>2741</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1472</v>
+      </c>
+      <c r="F22" s="18">
+        <v>2925</v>
+      </c>
+      <c r="G22" s="18">
+        <v>3301</v>
+      </c>
+      <c r="H22" s="18">
+        <v>4065</v>
+      </c>
+      <c r="I22" s="18">
         <v>2649</v>
       </c>
-      <c r="E22" s="18">
+      <c r="J22" s="18">
         <v>2719</v>
       </c>
-      <c r="F22" s="18">
+      <c r="K22" s="18">
         <v>3166</v>
       </c>
-      <c r="G22" s="18">
+      <c r="L22" s="18">
         <v>2480</v>
       </c>
-      <c r="H22" s="18">
+      <c r="M22" s="18">
         <v>3263</v>
       </c>
     </row>
@@ -785,6 +1154,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I23" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K23" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L23" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M23" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="17" t="inlineStr">
@@ -796,18 +1190,33 @@
         <v/>
       </c>
       <c r="D24" s="18">
+        <v>2741</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1472</v>
+      </c>
+      <c r="F24" s="18">
+        <v>2925</v>
+      </c>
+      <c r="G24" s="18">
+        <v>3301</v>
+      </c>
+      <c r="H24" s="18">
+        <v>4065</v>
+      </c>
+      <c r="I24" s="18">
         <v>2649</v>
       </c>
-      <c r="E24" s="18">
+      <c r="J24" s="18">
         <v>2719</v>
       </c>
-      <c r="F24" s="18">
+      <c r="K24" s="18">
         <v>3166</v>
       </c>
-      <c r="G24" s="18">
+      <c r="L24" s="18">
         <v>2480</v>
       </c>
-      <c r="H24" s="18">
+      <c r="M24" s="18">
         <v>3263</v>
       </c>
     </row>
@@ -835,6 +1244,21 @@
       <c r="H25" s="14">
         <v>0</v>
       </c>
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="11" t="inlineStr">
@@ -846,18 +1270,33 @@
         <v/>
       </c>
       <c r="D26" s="12">
+        <v>3194</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2648</v>
+      </c>
+      <c r="F26" s="12">
+        <v>2571</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2501</v>
+      </c>
+      <c r="H26" s="12">
+        <v>5509</v>
+      </c>
+      <c r="I26" s="12">
         <v>4926</v>
       </c>
-      <c r="E26" s="12">
+      <c r="J26" s="12">
         <v>2239</v>
       </c>
-      <c r="F26" s="12">
+      <c r="K26" s="12">
         <v>6515</v>
       </c>
-      <c r="G26" s="12">
+      <c r="L26" s="12">
         <v>3697</v>
       </c>
-      <c r="H26" s="12">
+      <c r="M26" s="12">
         <v>3168</v>
       </c>
     </row>
@@ -885,6 +1324,21 @@
       <c r="H27" s="14">
         <v>0</v>
       </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" s="2">
@@ -906,6 +1360,21 @@
         <v/>
       </c>
       <c r="H28" s="2">
+        <v/>
+      </c>
+      <c r="I28" s="2">
+        <v/>
+      </c>
+      <c r="J28" s="2">
+        <v/>
+      </c>
+      <c r="K28" s="2">
+        <v/>
+      </c>
+      <c r="L28" s="2">
+        <v/>
+      </c>
+      <c r="M28" s="2">
         <v/>
       </c>
     </row>

--- a/database/industries/ghaza/gheshasfa/income/yearly/dollar.xlsx
+++ b/database/industries/ghaza/gheshasfa/income/yearly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshasfa\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshasfa\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3823A2F4-2D4A-4620-8CF1-61164222A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF586E6D-50AE-4F08-A46E-530BBC8D30A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غشصفا-شیرپاستوریزه‌پگاه‌اصفهان‌</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -70,21 +55,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-02-21 (14)</t>
-  </si>
-  <si>
-    <t>1394-02-24 (23)</t>
-  </si>
-  <si>
-    <t>1395-02-25 (18)</t>
-  </si>
-  <si>
-    <t>1396-02-21 (14)</t>
-  </si>
-  <si>
-    <t>1397-04-09 (15)</t>
-  </si>
-  <si>
     <t>1398-02-22 (9)</t>
   </si>
   <si>
@@ -97,7 +67,7 @@
     <t>1401-02-18 (8)</t>
   </si>
   <si>
-    <t>1401-08-09 (5)</t>
+    <t>1401-10-29 (6)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -618,18 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -637,13 +607,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,13 +618,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -669,13 +629,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,13 +638,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,13 +649,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,13 +660,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,13 +669,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -755,59 +690,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -815,519 +720,304 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>54596</v>
+        <v>63777</v>
       </c>
       <c r="E11" s="13">
-        <v>51370</v>
+        <v>44602</v>
       </c>
       <c r="F11" s="13">
-        <v>66361</v>
+        <v>71718</v>
       </c>
       <c r="G11" s="13">
-        <v>64306</v>
+        <v>58996</v>
       </c>
       <c r="H11" s="13">
-        <v>63166</v>
-      </c>
-      <c r="I11" s="13">
-        <v>63777</v>
-      </c>
-      <c r="J11" s="13">
-        <v>44602</v>
-      </c>
-      <c r="K11" s="13">
-        <v>71718</v>
-      </c>
-      <c r="L11" s="13">
-        <v>58996</v>
-      </c>
-      <c r="M11" s="13">
         <v>70690</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-47538</v>
+        <v>-56047</v>
       </c>
       <c r="E12" s="11">
-        <v>-46464</v>
+        <v>-38869</v>
       </c>
       <c r="F12" s="11">
-        <v>-57292</v>
+        <v>-65405</v>
       </c>
       <c r="G12" s="11">
-        <v>-56326</v>
+        <v>-53380</v>
       </c>
       <c r="H12" s="11">
-        <v>-56560</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-56047</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-38869</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-65405</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-53380</v>
-      </c>
-      <c r="M12" s="11">
         <v>-63874</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>7058</v>
+        <v>7730</v>
       </c>
       <c r="E13" s="15">
-        <v>4906</v>
+        <v>5733</v>
       </c>
       <c r="F13" s="15">
-        <v>9069</v>
+        <v>6313</v>
       </c>
       <c r="G13" s="15">
-        <v>7980</v>
+        <v>5616</v>
       </c>
       <c r="H13" s="15">
-        <v>6606</v>
-      </c>
-      <c r="I13" s="15">
-        <v>7730</v>
-      </c>
-      <c r="J13" s="15">
-        <v>5733</v>
-      </c>
-      <c r="K13" s="15">
-        <v>6313</v>
-      </c>
-      <c r="L13" s="15">
-        <v>5616</v>
-      </c>
-      <c r="M13" s="15">
         <v>6816</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-3337</v>
+        <v>-3730</v>
       </c>
       <c r="E14" s="11">
-        <v>-2427</v>
+        <v>-2630</v>
       </c>
       <c r="F14" s="11">
-        <v>-5058</v>
+        <v>-2609</v>
       </c>
       <c r="G14" s="11">
-        <v>-4122</v>
+        <v>-2209</v>
       </c>
       <c r="H14" s="11">
-        <v>-3717</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-3730</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-2630</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-2609</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-2209</v>
-      </c>
-      <c r="M14" s="11">
         <v>-2954</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>17</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="11">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E16" s="11">
+        <v>137</v>
+      </c>
+      <c r="F16" s="11">
+        <v>91</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="H16" s="11">
-        <v>2008</v>
-      </c>
-      <c r="I16" s="11">
-        <v>9</v>
-      </c>
-      <c r="J16" s="11">
-        <v>137</v>
-      </c>
-      <c r="K16" s="11">
-        <v>91</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="11">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>3738</v>
+        <v>4010</v>
       </c>
       <c r="E17" s="15">
-        <v>2478</v>
+        <v>3240</v>
       </c>
       <c r="F17" s="15">
-        <v>4011</v>
+        <v>3796</v>
       </c>
       <c r="G17" s="15">
-        <v>3861</v>
+        <v>3407</v>
       </c>
       <c r="H17" s="15">
-        <v>4897</v>
-      </c>
-      <c r="I17" s="15">
-        <v>4010</v>
-      </c>
-      <c r="J17" s="15">
-        <v>3240</v>
-      </c>
-      <c r="K17" s="15">
-        <v>3796</v>
-      </c>
-      <c r="L17" s="15">
-        <v>3407</v>
-      </c>
-      <c r="M17" s="15">
         <v>3930</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-467</v>
+        <v>-452</v>
       </c>
       <c r="E18" s="11">
-        <v>-740</v>
+        <v>-183</v>
       </c>
       <c r="F18" s="11">
-        <v>-816</v>
+        <v>-303</v>
       </c>
       <c r="G18" s="11">
-        <v>-617</v>
+        <v>-369</v>
       </c>
       <c r="H18" s="11">
-        <v>-701</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-452</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-183</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-303</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-369</v>
-      </c>
-      <c r="M18" s="11">
         <v>-180</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="E19" s="13">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="F19" s="13">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="G19" s="13">
-        <v>647</v>
+        <v>189</v>
       </c>
       <c r="H19" s="13">
-        <v>562</v>
-      </c>
-      <c r="I19" s="13">
-        <v>327</v>
-      </c>
-      <c r="J19" s="13">
-        <v>242</v>
-      </c>
-      <c r="K19" s="13">
-        <v>318</v>
-      </c>
-      <c r="L19" s="13">
-        <v>189</v>
-      </c>
-      <c r="M19" s="13">
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>3556</v>
+        <v>3885</v>
       </c>
       <c r="E20" s="17">
-        <v>1884</v>
+        <v>3299</v>
       </c>
       <c r="F20" s="17">
-        <v>3565</v>
+        <v>3810</v>
       </c>
       <c r="G20" s="17">
-        <v>3892</v>
+        <v>3227</v>
       </c>
       <c r="H20" s="17">
-        <v>4759</v>
-      </c>
-      <c r="I20" s="17">
-        <v>3885</v>
-      </c>
-      <c r="J20" s="17">
-        <v>3299</v>
-      </c>
-      <c r="K20" s="17">
-        <v>3810</v>
-      </c>
-      <c r="L20" s="17">
-        <v>3227</v>
-      </c>
-      <c r="M20" s="17">
         <v>3994</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-815</v>
+        <v>-1236</v>
       </c>
       <c r="E21" s="13">
-        <v>-412</v>
+        <v>-580</v>
       </c>
       <c r="F21" s="13">
-        <v>-639</v>
+        <v>-644</v>
       </c>
       <c r="G21" s="13">
-        <v>-591</v>
+        <v>-747</v>
       </c>
       <c r="H21" s="13">
-        <v>-693</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-1236</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-580</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-644</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-747</v>
-      </c>
-      <c r="M21" s="13">
         <v>-731</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>2741</v>
+        <v>2649</v>
       </c>
       <c r="E22" s="17">
-        <v>1472</v>
+        <v>2719</v>
       </c>
       <c r="F22" s="17">
-        <v>2925</v>
+        <v>3166</v>
       </c>
       <c r="G22" s="17">
-        <v>3301</v>
+        <v>2480</v>
       </c>
       <c r="H22" s="17">
-        <v>4065</v>
-      </c>
-      <c r="I22" s="17">
-        <v>2649</v>
-      </c>
-      <c r="J22" s="17">
-        <v>2719</v>
-      </c>
-      <c r="K22" s="17">
-        <v>3166</v>
-      </c>
-      <c r="L22" s="17">
-        <v>2480</v>
-      </c>
-      <c r="M22" s="17">
         <v>3263</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>2741</v>
+        <v>2649</v>
       </c>
       <c r="E24" s="17">
-        <v>1472</v>
+        <v>2719</v>
       </c>
       <c r="F24" s="17">
-        <v>2925</v>
+        <v>3166</v>
       </c>
       <c r="G24" s="17">
-        <v>3301</v>
+        <v>2480</v>
       </c>
       <c r="H24" s="17">
-        <v>4065</v>
-      </c>
-      <c r="I24" s="17">
-        <v>2649</v>
-      </c>
-      <c r="J24" s="17">
-        <v>2719</v>
-      </c>
-      <c r="K24" s="17">
-        <v>3166</v>
-      </c>
-      <c r="L24" s="17">
-        <v>2480</v>
-      </c>
-      <c r="M24" s="17">
         <v>3263</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1345,61 +1035,31 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>3194</v>
+        <v>4926</v>
       </c>
       <c r="E26" s="11">
-        <v>2648</v>
+        <v>2239</v>
       </c>
       <c r="F26" s="11">
-        <v>2571</v>
+        <v>6515</v>
       </c>
       <c r="G26" s="11">
-        <v>2501</v>
+        <v>3697</v>
       </c>
       <c r="H26" s="11">
-        <v>5509</v>
-      </c>
-      <c r="I26" s="11">
-        <v>4926</v>
-      </c>
-      <c r="J26" s="11">
-        <v>2239</v>
-      </c>
-      <c r="K26" s="11">
-        <v>6515</v>
-      </c>
-      <c r="L26" s="11">
-        <v>3697</v>
-      </c>
-      <c r="M26" s="11">
         <v>3168</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1417,23 +1077,8 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1441,11 +1086,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ghaza/gheshasfa/income/yearly/dollar.xlsx
+++ b/database/industries/ghaza/gheshasfa/income/yearly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshasfa\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\gheshasfa\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BEC440-358B-4260-8778-18B65EEA0845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B53FEC-18A5-4A11-8A88-D2AC3D9584D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
